--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Guca2a</t>
   </si>
   <si>
     <t>Gucy2c</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.486124</v>
+        <v>0.6424206666666666</v>
       </c>
       <c r="H2">
-        <v>1.458372</v>
+        <v>1.927262</v>
       </c>
       <c r="I2">
-        <v>0.2878539732812144</v>
+        <v>0.287181738380071</v>
       </c>
       <c r="J2">
-        <v>0.300910175845181</v>
+        <v>0.2977136782305576</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2572606666666666</v>
+        <v>0.574202</v>
       </c>
       <c r="N2">
-        <v>0.771782</v>
+        <v>1.722606</v>
       </c>
       <c r="O2">
-        <v>0.5024337814199326</v>
+        <v>0.944448982881442</v>
       </c>
       <c r="P2">
-        <v>0.5024337814199326</v>
+        <v>0.9444489828814421</v>
       </c>
       <c r="Q2">
-        <v>0.1250605843226666</v>
+        <v>0.3688792316413333</v>
       </c>
       <c r="R2">
-        <v>1.125545258904</v>
+        <v>3.319913084772</v>
       </c>
       <c r="S2">
-        <v>0.1446275602924328</v>
+        <v>0.2712285007151825</v>
       </c>
       <c r="T2">
-        <v>0.1511874375176311</v>
+        <v>0.281175380594743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.6424206666666666</v>
+      </c>
+      <c r="H3">
+        <v>1.927262</v>
+      </c>
+      <c r="I3">
+        <v>0.287181738380071</v>
+      </c>
+      <c r="J3">
+        <v>0.2977136782305576</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.486124</v>
-      </c>
-      <c r="H3">
-        <v>1.458372</v>
-      </c>
-      <c r="I3">
-        <v>0.2878539732812144</v>
-      </c>
-      <c r="J3">
-        <v>0.300910175845181</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.2547683333333333</v>
+        <v>0.03377366666666667</v>
       </c>
       <c r="N3">
-        <v>0.764305</v>
+        <v>0.101321</v>
       </c>
       <c r="O3">
-        <v>0.4975662185800674</v>
+        <v>0.05555101711855792</v>
       </c>
       <c r="P3">
-        <v>0.4975662185800674</v>
+        <v>0.05555101711855793</v>
       </c>
       <c r="Q3">
-        <v>0.1238490012733333</v>
+        <v>0.02169690145577778</v>
       </c>
       <c r="R3">
-        <v>1.11464101146</v>
+        <v>0.195272113102</v>
       </c>
       <c r="S3">
-        <v>0.1432264129887816</v>
+        <v>0.01595323766488855</v>
       </c>
       <c r="T3">
-        <v>0.1497227383275498</v>
+        <v>0.01653829763581455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -670,40 +670,40 @@
         <v>0.920731</v>
       </c>
       <c r="I4">
-        <v>0.1817342054518229</v>
+        <v>0.1371983306682855</v>
       </c>
       <c r="J4">
-        <v>0.1899771300574266</v>
+        <v>0.1422298642690508</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2572606666666666</v>
+        <v>0.574202</v>
       </c>
       <c r="N4">
-        <v>0.771782</v>
+        <v>1.722606</v>
       </c>
       <c r="O4">
-        <v>0.5024337814199326</v>
+        <v>0.944448982881442</v>
       </c>
       <c r="P4">
-        <v>0.5024337814199326</v>
+        <v>0.9444489828814421</v>
       </c>
       <c r="Q4">
-        <v>0.07895595696022221</v>
+        <v>0.1762285272206667</v>
       </c>
       <c r="R4">
-        <v>0.7106036126419999</v>
+        <v>1.586056744986</v>
       </c>
       <c r="S4">
-        <v>0.09130940405850628</v>
+        <v>0.129576823852694</v>
       </c>
       <c r="T4">
-        <v>0.09545092783805917</v>
+        <v>0.1343288506442706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,40 +732,40 @@
         <v>0.920731</v>
       </c>
       <c r="I5">
-        <v>0.1817342054518229</v>
+        <v>0.1371983306682855</v>
       </c>
       <c r="J5">
-        <v>0.1899771300574266</v>
+        <v>0.1422298642690508</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2547683333333333</v>
+        <v>0.03377366666666667</v>
       </c>
       <c r="N5">
-        <v>0.764305</v>
+        <v>0.101321</v>
       </c>
       <c r="O5">
-        <v>0.4975662185800674</v>
+        <v>0.05555101711855792</v>
       </c>
       <c r="P5">
-        <v>0.4975662185800674</v>
+        <v>0.05555101711855793</v>
       </c>
       <c r="Q5">
-        <v>0.07819103410611111</v>
+        <v>0.01036548729455556</v>
       </c>
       <c r="R5">
-        <v>0.703719306955</v>
+        <v>0.09328938565099999</v>
       </c>
       <c r="S5">
-        <v>0.09042480139331659</v>
+        <v>0.007621506815591497</v>
       </c>
       <c r="T5">
-        <v>0.09452620221936742</v>
+        <v>0.007901013624780214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.675928</v>
+        <v>0.8184963333333334</v>
       </c>
       <c r="H6">
-        <v>2.027784</v>
+        <v>2.455489</v>
       </c>
       <c r="I6">
-        <v>0.400244712155797</v>
+        <v>0.3658929608912241</v>
       </c>
       <c r="J6">
-        <v>0.4183986253274504</v>
+        <v>0.3793115113797053</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2572606666666666</v>
+        <v>0.574202</v>
       </c>
       <c r="N6">
-        <v>0.771782</v>
+        <v>1.722606</v>
       </c>
       <c r="O6">
-        <v>0.5024337814199326</v>
+        <v>0.944448982881442</v>
       </c>
       <c r="P6">
-        <v>0.5024337814199326</v>
+        <v>0.9444489828814421</v>
       </c>
       <c r="Q6">
-        <v>0.1738896878986666</v>
+        <v>0.4699822315926667</v>
       </c>
       <c r="R6">
-        <v>1.565007191088</v>
+        <v>4.229840084334</v>
       </c>
       <c r="S6">
-        <v>0.2010964642217695</v>
+        <v>0.3455672347571959</v>
       </c>
       <c r="T6">
-        <v>0.2102176034641725</v>
+        <v>0.3582403711177852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.8184963333333334</v>
+      </c>
+      <c r="H7">
+        <v>2.455489</v>
+      </c>
+      <c r="I7">
+        <v>0.3658929608912241</v>
+      </c>
+      <c r="J7">
+        <v>0.3793115113797053</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.675928</v>
-      </c>
-      <c r="H7">
-        <v>2.027784</v>
-      </c>
-      <c r="I7">
-        <v>0.400244712155797</v>
-      </c>
-      <c r="J7">
-        <v>0.4183986253274504</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.2547683333333333</v>
+        <v>0.03377366666666667</v>
       </c>
       <c r="N7">
-        <v>0.764305</v>
+        <v>0.101321</v>
       </c>
       <c r="O7">
-        <v>0.4975662185800674</v>
+        <v>0.05555101711855792</v>
       </c>
       <c r="P7">
-        <v>0.4975662185800674</v>
+        <v>0.05555101711855793</v>
       </c>
       <c r="Q7">
-        <v>0.1722050500133333</v>
+        <v>0.02764362232988889</v>
       </c>
       <c r="R7">
-        <v>1.54984545012</v>
+        <v>0.248792600969</v>
       </c>
       <c r="S7">
-        <v>0.1991482479340275</v>
+        <v>0.02032572613402824</v>
       </c>
       <c r="T7">
-        <v>0.2081810218632779</v>
+        <v>0.02107114026192009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -912,46 +912,46 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2198245</v>
+        <v>0.237407</v>
       </c>
       <c r="H8">
-        <v>0.439649</v>
+        <v>0.474814</v>
       </c>
       <c r="I8">
-        <v>0.1301671091111657</v>
+        <v>0.106128209289029</v>
       </c>
       <c r="J8">
-        <v>0.09071406876994208</v>
+        <v>0.0733468632782486</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2572606666666666</v>
+        <v>0.574202</v>
       </c>
       <c r="N8">
-        <v>0.771782</v>
+        <v>1.722606</v>
       </c>
       <c r="O8">
-        <v>0.5024337814199326</v>
+        <v>0.944448982881442</v>
       </c>
       <c r="P8">
-        <v>0.5024337814199326</v>
+        <v>0.9444489828814421</v>
       </c>
       <c r="Q8">
-        <v>0.05655219741966665</v>
+        <v>0.136319574214</v>
       </c>
       <c r="R8">
-        <v>0.339313184518</v>
+        <v>0.817917445284</v>
       </c>
       <c r="S8">
-        <v>0.06540035284722394</v>
+        <v>0.1002326793180522</v>
       </c>
       <c r="T8">
-        <v>0.04557781260006981</v>
+        <v>0.06927237042068608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,46 +974,170 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.2198245</v>
+        <v>0.237407</v>
       </c>
       <c r="H9">
-        <v>0.439649</v>
+        <v>0.474814</v>
       </c>
       <c r="I9">
-        <v>0.1301671091111657</v>
+        <v>0.106128209289029</v>
       </c>
       <c r="J9">
-        <v>0.09071406876994208</v>
+        <v>0.0733468632782486</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03377366666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.101321</v>
+      </c>
+      <c r="O9">
+        <v>0.05555101711855792</v>
+      </c>
+      <c r="P9">
+        <v>0.05555101711855793</v>
+      </c>
+      <c r="Q9">
+        <v>0.008018104882333333</v>
+      </c>
+      <c r="R9">
+        <v>0.048108629294</v>
+      </c>
+      <c r="S9">
+        <v>0.005895529970976748</v>
+      </c>
+      <c r="T9">
+        <v>0.004074492857562516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2317486666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.695246</v>
+      </c>
+      <c r="I10">
+        <v>0.1035987607713901</v>
+      </c>
+      <c r="J10">
+        <v>0.1073980828424377</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.2547683333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.764305</v>
-      </c>
-      <c r="O9">
-        <v>0.4975662185800674</v>
-      </c>
-      <c r="P9">
-        <v>0.4975662185800674</v>
-      </c>
-      <c r="Q9">
-        <v>0.05600432149083332</v>
-      </c>
-      <c r="R9">
-        <v>0.336025928945</v>
-      </c>
-      <c r="S9">
-        <v>0.06476675626394175</v>
-      </c>
-      <c r="T9">
-        <v>0.04513625616987227</v>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.574202</v>
+      </c>
+      <c r="N10">
+        <v>1.722606</v>
+      </c>
+      <c r="O10">
+        <v>0.944448982881442</v>
+      </c>
+      <c r="P10">
+        <v>0.9444489828814421</v>
+      </c>
+      <c r="Q10">
+        <v>0.1330705478973333</v>
+      </c>
+      <c r="R10">
+        <v>1.197634931076</v>
+      </c>
+      <c r="S10">
+        <v>0.09784374423831725</v>
+      </c>
+      <c r="T10">
+        <v>0.1014320101039572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2317486666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.695246</v>
+      </c>
+      <c r="I11">
+        <v>0.1035987607713901</v>
+      </c>
+      <c r="J11">
+        <v>0.1073980828424377</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03377366666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.101321</v>
+      </c>
+      <c r="O11">
+        <v>0.05555101711855792</v>
+      </c>
+      <c r="P11">
+        <v>0.05555101711855793</v>
+      </c>
+      <c r="Q11">
+        <v>0.007827002218444444</v>
+      </c>
+      <c r="R11">
+        <v>0.070443019966</v>
+      </c>
+      <c r="S11">
+        <v>0.005755016533072881</v>
+      </c>
+      <c r="T11">
+        <v>0.005966072738480561</v>
       </c>
     </row>
   </sheetData>
